--- a/Axcels/ever-source/EverSource.xlsx
+++ b/Axcels/ever-source/EverSource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="27660" windowHeight="13650" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="$chemical_elements" sheetId="3" r:id="rId1"/>
@@ -3938,10 +3938,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3960,9 +3960,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3974,8 +4035,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3996,93 +4074,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4091,6 +4084,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4105,13 +4105,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4129,13 +4231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,25 +4255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4183,19 +4267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4207,85 +4285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,69 +4296,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4380,8 +4317,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,6 +4387,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -4404,10 +4404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4416,133 +4416,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
@@ -13046,11 +13046,14 @@
   <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
